--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/C/20/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/C/20/seed5/result_data_KNN.xlsx
@@ -621,7 +621,7 @@
         <v>6.01</v>
       </c>
       <c r="C11" t="n">
-        <v>-14.108</v>
+        <v>-12.843</v>
       </c>
       <c r="D11" t="n">
         <v>-8.01</v>
@@ -638,7 +638,7 @@
         <v>5.38</v>
       </c>
       <c r="C12" t="n">
-        <v>-13.97</v>
+        <v>-12.662</v>
       </c>
       <c r="D12" t="n">
         <v>-10.06</v>
@@ -689,7 +689,7 @@
         <v>5.53</v>
       </c>
       <c r="C15" t="n">
-        <v>-12.814</v>
+        <v>-12.18</v>
       </c>
       <c r="D15" t="n">
         <v>-6.43</v>
